--- a/Lab4--Decode/factorial_expanded_pipeline.xlsx
+++ b/Lab4--Decode/factorial_expanded_pipeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\College\8_Spring2024\Adv Reconfigurable Computing\AdvReconfigurableComputing\Lab4--Decode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E83626D-883F-4A9F-8E5B-1A0FACE56935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A0D54-8911-4023-A03A-6AA3309FE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{626AB52F-7DD8-4348-9EC1-B060B266BD56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{626AB52F-7DD8-4348-9EC1-B060B266BD56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="55">
   <si>
     <t>Fetch</t>
   </si>
@@ -198,14 +198,25 @@
   </si>
   <si>
     <t>R1 = 6</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,6 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,9 +306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,39 +604,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689E96C-646B-4D6F-87ED-16822974BE51}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -633,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -647,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -664,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -684,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -710,7 +727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -736,7 +753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -762,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -788,7 +805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -814,7 +831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -837,7 +854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -863,7 +880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -889,7 +906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -912,7 +929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -935,7 +952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -958,7 +975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -984,7 +1001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1007,7 +1024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1033,7 +1050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1079,7 +1096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1102,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1148,7 +1165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1171,7 +1188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1194,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1217,7 +1234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1240,7 +1257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1263,7 +1280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1286,7 +1303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1309,7 +1326,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1332,7 +1349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1355,7 +1372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1378,7 +1395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1401,7 +1418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1424,7 +1441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1447,7 +1464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1470,7 +1487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1493,7 +1510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1539,7 +1556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1562,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1585,7 +1602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1608,7 +1625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1631,7 +1648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1654,7 +1671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1677,7 +1694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1723,7 +1740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1746,7 +1763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1769,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1792,7 +1809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1815,7 +1832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1838,7 +1855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1861,7 +1878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1884,7 +1901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1907,7 +1924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1953,7 +1970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1976,7 +1993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1999,7 +2016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2022,7 +2039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2045,7 +2062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2068,7 +2085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2091,7 +2108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2114,7 +2131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2137,7 +2154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2181,7 +2198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2200,7 +2217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2219,7 +2236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2236,7 +2253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2251,7 +2268,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2268,7 +2285,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D75" s="4" t="s">
         <v>45</v>
       </c>
@@ -2278,25 +2295,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F77" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G78" s="4" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>